--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3557397.819607259</v>
+        <v>3554996.890115285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10202060.10315923</v>
+        <v>10202060.10315924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>580794.9275113613</v>
+        <v>580794.9275113608</v>
       </c>
     </row>
     <row r="9">
@@ -1154,49 +1154,49 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,49 +1312,49 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>65.91655901590822</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>27.17778598090582</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1610,16 +1610,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>8.084047011378615</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5973159519492</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.2019409719033</v>
+        <v>317.2019409719034</v>
       </c>
       <c r="C17" t="n">
         <v>299.7409910794303</v>
@@ -1850,13 +1850,13 @@
         <v>289.1511409291057</v>
       </c>
       <c r="E17" t="n">
-        <v>316.3984693806845</v>
+        <v>316.3984693806846</v>
       </c>
       <c r="F17" t="n">
         <v>341.3441450501342</v>
       </c>
       <c r="G17" t="n">
-        <v>333.311605603826</v>
+        <v>333.3116056038256</v>
       </c>
       <c r="H17" t="n">
         <v>229.0758636957432</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>43.65586109659853</v>
+        <v>43.65586109659864</v>
       </c>
       <c r="T17" t="n">
         <v>138.3860694480429</v>
       </c>
       <c r="U17" t="n">
-        <v>185.4632712673247</v>
+        <v>185.4632712673248</v>
       </c>
       <c r="V17" t="n">
-        <v>262.2203577785576</v>
+        <v>262.2203577785577</v>
       </c>
       <c r="W17" t="n">
-        <v>283.7090680258357</v>
+        <v>283.7090680258358</v>
       </c>
       <c r="X17" t="n">
         <v>304.1991999868918</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.7060379644763</v>
+        <v>320.7060379644764</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.30007949036</v>
+        <v>114.3000794903601</v>
       </c>
       <c r="C19" t="n">
-        <v>101.7149204070505</v>
+        <v>101.7149204070506</v>
       </c>
       <c r="D19" t="n">
-        <v>83.08357232663506</v>
+        <v>83.08357232663515</v>
       </c>
       <c r="E19" t="n">
-        <v>80.90206195499188</v>
+        <v>80.90206195499196</v>
       </c>
       <c r="F19" t="n">
-        <v>79.88914733135395</v>
+        <v>79.88914733135404</v>
       </c>
       <c r="G19" t="n">
-        <v>100.4939075674509</v>
+        <v>100.493907567451</v>
       </c>
       <c r="H19" t="n">
-        <v>79.22311422274349</v>
+        <v>79.22311422274358</v>
       </c>
       <c r="I19" t="n">
-        <v>30.8205197182608</v>
+        <v>30.82051971826089</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.40025197847004</v>
+        <v>23.40025197847012</v>
       </c>
       <c r="S19" t="n">
-        <v>124.2371246398646</v>
+        <v>124.2371246398647</v>
       </c>
       <c r="T19" t="n">
-        <v>154.0170485845919</v>
+        <v>154.017048584592</v>
       </c>
       <c r="U19" t="n">
         <v>220.6799375140356</v>
       </c>
       <c r="V19" t="n">
-        <v>186.6057426322507</v>
+        <v>186.6057426322508</v>
       </c>
       <c r="W19" t="n">
-        <v>220.9910976450137</v>
+        <v>220.9910976450138</v>
       </c>
       <c r="X19" t="n">
         <v>160.1777546974599</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.0527526605175</v>
+        <v>153.0527526605176</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.2019409719033</v>
+        <v>317.2019409719034</v>
       </c>
       <c r="C20" t="n">
         <v>299.7409910794303</v>
@@ -2087,7 +2087,7 @@
         <v>289.1511409291057</v>
       </c>
       <c r="E20" t="n">
-        <v>316.3984693806845</v>
+        <v>316.3984693806846</v>
       </c>
       <c r="F20" t="n">
         <v>341.3441450501342</v>
@@ -2096,7 +2096,7 @@
         <v>345.3898249618762</v>
       </c>
       <c r="H20" t="n">
-        <v>229.0758636957432</v>
+        <v>216.9976443376926</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.65586109659853</v>
+        <v>43.65586109659864</v>
       </c>
       <c r="T20" t="n">
         <v>138.3860694480429</v>
       </c>
       <c r="U20" t="n">
-        <v>173.3850519092748</v>
+        <v>185.4632712673248</v>
       </c>
       <c r="V20" t="n">
-        <v>262.2203577785576</v>
+        <v>262.2203577785577</v>
       </c>
       <c r="W20" t="n">
-        <v>283.7090680258357</v>
+        <v>283.7090680258358</v>
       </c>
       <c r="X20" t="n">
         <v>304.1991999868918</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.7060379644763</v>
+        <v>320.7060379644764</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.30007949036</v>
+        <v>114.3000794903601</v>
       </c>
       <c r="C22" t="n">
-        <v>101.7149204070505</v>
+        <v>101.7149204070506</v>
       </c>
       <c r="D22" t="n">
-        <v>83.08357232663506</v>
+        <v>83.08357232663515</v>
       </c>
       <c r="E22" t="n">
-        <v>80.90206195499188</v>
+        <v>80.90206195499196</v>
       </c>
       <c r="F22" t="n">
-        <v>79.88914733135395</v>
+        <v>79.88914733135404</v>
       </c>
       <c r="G22" t="n">
-        <v>100.4939075674509</v>
+        <v>100.493907567451</v>
       </c>
       <c r="H22" t="n">
-        <v>79.22311422274349</v>
+        <v>79.22311422274358</v>
       </c>
       <c r="I22" t="n">
-        <v>30.8205197182608</v>
+        <v>30.82051971826089</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.40025197847004</v>
+        <v>23.40025197847012</v>
       </c>
       <c r="S22" t="n">
-        <v>124.2371246398646</v>
+        <v>124.2371246398647</v>
       </c>
       <c r="T22" t="n">
-        <v>154.0170485845919</v>
+        <v>154.017048584592</v>
       </c>
       <c r="U22" t="n">
         <v>220.6799375140356</v>
       </c>
       <c r="V22" t="n">
-        <v>186.6057426322507</v>
+        <v>186.6057426322508</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9910976450137</v>
+        <v>220.9910976450138</v>
       </c>
       <c r="X22" t="n">
         <v>160.1777546974599</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0527526605175</v>
+        <v>153.0527526605176</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.2019409719033</v>
+        <v>317.2019409719034</v>
       </c>
       <c r="C23" t="n">
         <v>299.7409910794303</v>
@@ -2324,7 +2324,7 @@
         <v>289.1511409291057</v>
       </c>
       <c r="E23" t="n">
-        <v>316.3984693806845</v>
+        <v>316.3984693806846</v>
       </c>
       <c r="F23" t="n">
         <v>341.3441450501342</v>
@@ -2333,7 +2333,7 @@
         <v>345.3898249618762</v>
       </c>
       <c r="H23" t="n">
-        <v>229.0758636957432</v>
+        <v>229.0758636957433</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.65586109659853</v>
+        <v>43.65586109659866</v>
       </c>
       <c r="T23" t="n">
         <v>138.3860694480429</v>
       </c>
       <c r="U23" t="n">
-        <v>185.4632712673247</v>
+        <v>185.4632712673248</v>
       </c>
       <c r="V23" t="n">
-        <v>262.2203577785576</v>
+        <v>262.2203577785577</v>
       </c>
       <c r="W23" t="n">
-        <v>283.7090680258357</v>
+        <v>283.7090680258358</v>
       </c>
       <c r="X23" t="n">
         <v>304.1991999868918</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.7060379644763</v>
+        <v>320.7060379644764</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.30007949036</v>
+        <v>114.3000794903601</v>
       </c>
       <c r="C25" t="n">
-        <v>101.7149204070505</v>
+        <v>101.7149204070506</v>
       </c>
       <c r="D25" t="n">
-        <v>83.08357232663506</v>
+        <v>83.08357232663515</v>
       </c>
       <c r="E25" t="n">
-        <v>80.90206195499188</v>
+        <v>80.90206195499196</v>
       </c>
       <c r="F25" t="n">
-        <v>79.88914733135395</v>
+        <v>79.88914733135404</v>
       </c>
       <c r="G25" t="n">
-        <v>100.4939075674509</v>
+        <v>100.493907567451</v>
       </c>
       <c r="H25" t="n">
-        <v>79.22311422274349</v>
+        <v>79.22311422274358</v>
       </c>
       <c r="I25" t="n">
-        <v>30.8205197182608</v>
+        <v>30.8205197182609</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.40025197847004</v>
+        <v>23.40025197847014</v>
       </c>
       <c r="S25" t="n">
-        <v>124.2371246398646</v>
+        <v>124.2371246398647</v>
       </c>
       <c r="T25" t="n">
-        <v>154.0170485845919</v>
+        <v>154.017048584592</v>
       </c>
       <c r="U25" t="n">
         <v>220.6799375140356</v>
       </c>
       <c r="V25" t="n">
-        <v>186.6057426322507</v>
+        <v>186.6057426322508</v>
       </c>
       <c r="W25" t="n">
-        <v>220.9910976450137</v>
+        <v>220.9910976450138</v>
       </c>
       <c r="X25" t="n">
         <v>160.1777546974599</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.0527526605175</v>
+        <v>153.0527526605176</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C28" t="n">
-        <v>51.74781219644586</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D28" t="n">
         <v>107.0385432452864</v>
@@ -2725,13 +2725,13 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861022</v>
+        <v>98.92939386132899</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>125.6698913257019</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E31" t="n">
-        <v>83.19800635276155</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>29.92203912074932</v>
       </c>
       <c r="G31" t="n">
         <v>124.4488784861022</v>
@@ -2968,7 +2968,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>339.2508720109522</v>
       </c>
       <c r="C32" t="n">
-        <v>321.7899221184792</v>
+        <v>321.7899221184791</v>
       </c>
       <c r="D32" t="n">
-        <v>311.2000719681546</v>
+        <v>311.2000719681545</v>
       </c>
       <c r="E32" t="n">
         <v>338.4474004197334</v>
       </c>
       <c r="F32" t="n">
-        <v>363.3930760891831</v>
+        <v>363.393076089183</v>
       </c>
       <c r="G32" t="n">
-        <v>367.4387560009251</v>
+        <v>367.438756000925</v>
       </c>
       <c r="H32" t="n">
-        <v>251.1247947347921</v>
+        <v>251.124794734792</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.70479213564747</v>
+        <v>65.70479213564739</v>
       </c>
       <c r="T32" t="n">
-        <v>160.4350004870918</v>
+        <v>160.4350004870917</v>
       </c>
       <c r="U32" t="n">
-        <v>207.5122023063736</v>
+        <v>207.5122023063735</v>
       </c>
       <c r="V32" t="n">
         <v>284.2692888176065</v>
@@ -3092,7 +3092,7 @@
         <v>305.7579990648846</v>
       </c>
       <c r="X32" t="n">
-        <v>326.2481310259407</v>
+        <v>326.2481310259406</v>
       </c>
       <c r="Y32" t="n">
         <v>342.7549690035252</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247716</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>136.3490105294089</v>
       </c>
       <c r="C34" t="n">
-        <v>123.7638514460995</v>
+        <v>123.7638514460994</v>
       </c>
       <c r="D34" t="n">
-        <v>105.132503365684</v>
+        <v>105.1325033656839</v>
       </c>
       <c r="E34" t="n">
-        <v>102.9509929940408</v>
+        <v>102.9509929940407</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9380783704029</v>
+        <v>18.68202416586102</v>
       </c>
       <c r="G34" t="n">
-        <v>122.5428386064999</v>
+        <v>122.5428386064998</v>
       </c>
       <c r="H34" t="n">
-        <v>70.88544181455916</v>
+        <v>101.2720452617923</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.86945075730967</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.44918301751898</v>
+        <v>45.44918301751892</v>
       </c>
       <c r="S34" t="n">
         <v>146.2860556789135</v>
@@ -3241,7 +3241,7 @@
         <v>176.0659796236408</v>
       </c>
       <c r="U34" t="n">
-        <v>242.7288685530845</v>
+        <v>242.7288685530844</v>
       </c>
       <c r="V34" t="n">
         <v>208.6546736712996</v>
@@ -3250,7 +3250,7 @@
         <v>243.0400286840626</v>
       </c>
       <c r="X34" t="n">
-        <v>182.2266857365088</v>
+        <v>182.2266857365087</v>
       </c>
       <c r="Y34" t="n">
         <v>175.1016836995664</v>
@@ -3266,7 +3266,7 @@
         <v>312.7385393449467</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524737</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D35" t="n">
         <v>284.6877393021491</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.192459469642</v>
+        <v>39.19245946964197</v>
       </c>
       <c r="T35" t="n">
         <v>133.9226678210863</v>
@@ -3323,7 +3323,7 @@
         <v>180.9998696403681</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7569561516011</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W35" t="n">
         <v>279.2456663988792</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8366778634035</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C37" t="n">
-        <v>97.25151878009399</v>
+        <v>97.25151878009396</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967851</v>
+        <v>78.62017069967848</v>
       </c>
       <c r="E37" t="n">
-        <v>76.43866032803533</v>
+        <v>76.4386603280353</v>
       </c>
       <c r="F37" t="n">
-        <v>75.42574570439746</v>
+        <v>75.42574570439737</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049438</v>
+        <v>96.03050594049435</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578694</v>
+        <v>74.75971259578691</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130427</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.9368503515135</v>
+        <v>18.93685035151347</v>
       </c>
       <c r="S37" t="n">
-        <v>119.7737230129081</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T37" t="n">
-        <v>149.5536469576354</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U37" t="n">
         <v>216.216535887079</v>
       </c>
       <c r="V37" t="n">
-        <v>182.1423410052942</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W37" t="n">
-        <v>216.5276960180572</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X37" t="n">
         <v>155.7143530705033</v>
@@ -3503,7 +3503,7 @@
         <v>312.7385393449467</v>
       </c>
       <c r="C38" t="n">
-        <v>295.2775894524737</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D38" t="n">
         <v>284.6877393021491</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.192459469642</v>
+        <v>39.19245946964197</v>
       </c>
       <c r="T38" t="n">
         <v>133.9226678210863</v>
@@ -3560,7 +3560,7 @@
         <v>180.9998696403681</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7569561516011</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W38" t="n">
         <v>279.2456663988792</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.8366778634035</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C40" t="n">
-        <v>97.25151878009399</v>
+        <v>97.25151878009396</v>
       </c>
       <c r="D40" t="n">
-        <v>78.62017069967851</v>
+        <v>78.62017069967848</v>
       </c>
       <c r="E40" t="n">
-        <v>76.43866032803533</v>
+        <v>76.4386603280353</v>
       </c>
       <c r="F40" t="n">
-        <v>75.4257457043974</v>
+        <v>75.42574570439737</v>
       </c>
       <c r="G40" t="n">
-        <v>96.03050594049438</v>
+        <v>96.03050594049435</v>
       </c>
       <c r="H40" t="n">
-        <v>74.75971259578694</v>
+        <v>74.75971259578691</v>
       </c>
       <c r="I40" t="n">
-        <v>26.35711809130427</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.9368503515135</v>
+        <v>18.93685035151347</v>
       </c>
       <c r="S40" t="n">
-        <v>119.7737230129081</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T40" t="n">
-        <v>149.5536469576354</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U40" t="n">
         <v>216.216535887079</v>
       </c>
       <c r="V40" t="n">
-        <v>182.1423410052942</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W40" t="n">
-        <v>216.5276960180572</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X40" t="n">
         <v>155.7143530705033</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5893510335609</v>
+        <v>148.5893510335613</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>213.5060897741285</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>316.7744094091651</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>180.3615956913139</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>241.6510731180165</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800363</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -4778,55 +4778,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
         <v>21.38658590694733</v>
@@ -4844,10 +4844,10 @@
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4893,13 +4893,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4914,19 +4914,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4966,7 +4966,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.511897108922</v>
+        <v>1651.889079901992</v>
       </c>
       <c r="C11" t="n">
-        <v>1697.999013116583</v>
+        <v>1330.376195909653</v>
       </c>
       <c r="D11" t="n">
-        <v>1387.182947457906</v>
+        <v>1019.560130250976</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.844327807735</v>
+        <v>681.2215106008051</v>
       </c>
       <c r="F11" t="n">
-        <v>685.308055966201</v>
+        <v>317.6852387592709</v>
       </c>
       <c r="G11" t="n">
-        <v>317.6852387592708</v>
+        <v>317.6852387592709</v>
       </c>
       <c r="H11" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611131</v>
       </c>
       <c r="I11" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611131</v>
       </c>
       <c r="J11" t="n">
-        <v>256.4304022751367</v>
+        <v>307.3489915876043</v>
       </c>
       <c r="K11" t="n">
-        <v>590.249775964983</v>
+        <v>641.1683652774507</v>
       </c>
       <c r="L11" t="n">
-        <v>1041.283989213392</v>
+        <v>1092.202578525859</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.815893885316</v>
+        <v>1625.734483197784</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.594710944098</v>
+        <v>2172.513300256566</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.567181823435</v>
+        <v>2675.485771135903</v>
       </c>
       <c r="P11" t="n">
-        <v>3019.341548180612</v>
+        <v>3070.26013749308</v>
       </c>
       <c r="Q11" t="n">
-        <v>3267.627909936295</v>
+        <v>3318.546499248763</v>
       </c>
       <c r="R11" t="n">
-        <v>3377.563565805564</v>
+        <v>3377.563565805565</v>
       </c>
       <c r="S11" t="n">
-        <v>3377.563565805564</v>
+        <v>3314.722530280734</v>
       </c>
       <c r="T11" t="n">
-        <v>3377.563565805564</v>
+        <v>3156.194415613029</v>
       </c>
       <c r="U11" t="n">
-        <v>3377.563565805564</v>
+        <v>2950.113571834939</v>
       </c>
       <c r="V11" t="n">
-        <v>3093.950311410067</v>
+        <v>2666.500317439441</v>
       </c>
       <c r="W11" t="n">
-        <v>3027.367928565715</v>
+        <v>2361.181295117401</v>
       </c>
       <c r="X11" t="n">
-        <v>2701.351803252709</v>
+        <v>2333.728986045779</v>
       </c>
       <c r="Y11" t="n">
-        <v>2358.66210422497</v>
+        <v>1991.03928701804</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.5830093650364</v>
+        <v>942.5830093650354</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1299800839095</v>
+        <v>768.1299800839084</v>
       </c>
       <c r="D12" t="n">
-        <v>619.1955704226582</v>
+        <v>619.1955704226572</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9581154172027</v>
+        <v>459.9581154172017</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4235574440877</v>
+        <v>313.4235574440867</v>
       </c>
       <c r="G12" t="n">
-        <v>177.0604572767058</v>
+        <v>177.0604572767048</v>
       </c>
       <c r="H12" t="n">
-        <v>86.55856291457334</v>
+        <v>86.55856291457228</v>
       </c>
       <c r="I12" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611131</v>
       </c>
       <c r="J12" t="n">
         <v>161.2285408067286</v>
@@ -5142,25 +5142,25 @@
         <v>2566.092697417268</v>
       </c>
       <c r="R12" t="n">
-        <v>2565.948344009784</v>
+        <v>2565.948344009783</v>
       </c>
       <c r="S12" t="n">
-        <v>2436.510457503264</v>
+        <v>2436.510457503263</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.86745718112</v>
+        <v>2243.867457181119</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.799610315535</v>
+        <v>2015.799610315534</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.647502083793</v>
+        <v>1780.647502083792</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.410145355591</v>
+        <v>1526.41014535559</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.558645150058</v>
+        <v>1318.558645150057</v>
       </c>
       <c r="Y12" t="n">
         <v>1110.798346385104</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5054046892222</v>
+        <v>760.5054046892221</v>
       </c>
       <c r="C13" t="n">
-        <v>639.0188547093886</v>
+        <v>639.0188547093885</v>
       </c>
       <c r="D13" t="n">
-        <v>536.3518482451262</v>
+        <v>536.351848245126</v>
       </c>
       <c r="E13" t="n">
-        <v>435.8883876108064</v>
+        <v>435.8883876108061</v>
       </c>
       <c r="F13" t="n">
-        <v>336.4480730609694</v>
+        <v>336.4480730609692</v>
       </c>
       <c r="G13" t="n">
-        <v>216.1948693837616</v>
+        <v>216.1948693837614</v>
       </c>
       <c r="H13" t="n">
-        <v>117.4273155496927</v>
+        <v>117.4273155496925</v>
       </c>
       <c r="I13" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611131</v>
       </c>
       <c r="J13" t="n">
-        <v>159.1792890154534</v>
+        <v>159.1792890154535</v>
       </c>
       <c r="K13" t="n">
         <v>409.6718572167364</v>
       </c>
       <c r="L13" t="n">
-        <v>772.737040917639</v>
+        <v>772.7370409176391</v>
       </c>
       <c r="M13" t="n">
-        <v>1163.399471769594</v>
+        <v>1163.399471769595</v>
       </c>
       <c r="N13" t="n">
         <v>1551.313233727866</v>
@@ -5236,13 +5236,13 @@
         <v>1490.554637805677</v>
       </c>
       <c r="W13" t="n">
-        <v>1248.58710071679</v>
+        <v>1248.587100716789</v>
       </c>
       <c r="X13" t="n">
         <v>1068.047182766845</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.7042365713887</v>
+        <v>894.7042365713884</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.775257631233</v>
+        <v>1353.325263660608</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.262373638895</v>
+        <v>1031.81237966827</v>
       </c>
       <c r="D14" t="n">
-        <v>1148.446307980218</v>
+        <v>1023.646675616372</v>
       </c>
       <c r="E14" t="n">
-        <v>810.1076883300467</v>
+        <v>685.3080559662011</v>
       </c>
       <c r="F14" t="n">
-        <v>446.5714164885125</v>
+        <v>685.3080559662011</v>
       </c>
       <c r="G14" t="n">
-        <v>317.6852387592708</v>
+        <v>317.6852387592709</v>
       </c>
       <c r="H14" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611133</v>
       </c>
       <c r="I14" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611133</v>
       </c>
       <c r="J14" t="n">
-        <v>307.3489915876021</v>
+        <v>256.4304022751368</v>
       </c>
       <c r="K14" t="n">
-        <v>641.1683652774486</v>
+        <v>590.2497759649832</v>
       </c>
       <c r="L14" t="n">
-        <v>1092.202578525857</v>
+        <v>1041.283989213392</v>
       </c>
       <c r="M14" t="n">
-        <v>1625.734483197782</v>
+        <v>1574.815893885317</v>
       </c>
       <c r="N14" t="n">
-        <v>2172.513300256564</v>
+        <v>2172.513300256566</v>
       </c>
       <c r="O14" t="n">
-        <v>2675.485771135901</v>
+        <v>2675.485771135903</v>
       </c>
       <c r="P14" t="n">
-        <v>3070.26013749308</v>
+        <v>3070.260137493081</v>
       </c>
       <c r="Q14" t="n">
-        <v>3318.546499248762</v>
+        <v>3318.546499248764</v>
       </c>
       <c r="R14" t="n">
-        <v>3377.563565805564</v>
+        <v>3377.563565805566</v>
       </c>
       <c r="S14" t="n">
-        <v>3377.563565805564</v>
+        <v>3314.722530280735</v>
       </c>
       <c r="T14" t="n">
-        <v>3377.563565805564</v>
+        <v>3156.19441561303</v>
       </c>
       <c r="U14" t="n">
-        <v>3377.563565805564</v>
+        <v>2950.11357183494</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.950311410067</v>
+        <v>2666.500317439442</v>
       </c>
       <c r="W14" t="n">
-        <v>2788.631289088026</v>
+        <v>2361.181295117402</v>
       </c>
       <c r="X14" t="n">
-        <v>2462.61516377502</v>
+        <v>2035.165169804395</v>
       </c>
       <c r="Y14" t="n">
-        <v>2119.925464747282</v>
+        <v>1692.475470776656</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.5830093650364</v>
+        <v>942.5830093650363</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1299800839095</v>
+        <v>768.1299800839093</v>
       </c>
       <c r="D15" t="n">
-        <v>619.1955704226582</v>
+        <v>619.1955704226581</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9581154172027</v>
+        <v>459.9581154172026</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4235574440877</v>
+        <v>313.4235574440876</v>
       </c>
       <c r="G15" t="n">
-        <v>177.0604572767058</v>
+        <v>177.0604572767057</v>
       </c>
       <c r="H15" t="n">
-        <v>86.55856291457332</v>
+        <v>86.5585629145732</v>
       </c>
       <c r="I15" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611133</v>
       </c>
       <c r="J15" t="n">
-        <v>161.2285408067286</v>
+        <v>161.2285408067287</v>
       </c>
       <c r="K15" t="n">
         <v>399.4927397870758</v>
       </c>
       <c r="L15" t="n">
-        <v>766.190900099741</v>
+        <v>766.1909000997412</v>
       </c>
       <c r="M15" t="n">
         <v>1213.467225322057</v>
@@ -5422,25 +5422,25 @@
         <v>435.8883876108064</v>
       </c>
       <c r="F16" t="n">
-        <v>336.4480730609693</v>
+        <v>336.4480730609694</v>
       </c>
       <c r="G16" t="n">
         <v>216.1948693837616</v>
       </c>
       <c r="H16" t="n">
-        <v>117.4273155496926</v>
+        <v>117.4273155496927</v>
       </c>
       <c r="I16" t="n">
-        <v>67.55127131611128</v>
+        <v>67.55127131611133</v>
       </c>
       <c r="J16" t="n">
-        <v>159.1792890154535</v>
+        <v>159.1792890154534</v>
       </c>
       <c r="K16" t="n">
-        <v>409.6718572167365</v>
+        <v>409.6718572167364</v>
       </c>
       <c r="L16" t="n">
-        <v>772.7370409176393</v>
+        <v>772.7370409176392</v>
       </c>
       <c r="M16" t="n">
         <v>1163.399471769595</v>
@@ -5492,52 +5492,52 @@
         <v>1902.837612729042</v>
       </c>
       <c r="C17" t="n">
-        <v>1600.068934871032</v>
+        <v>1600.068934871031</v>
       </c>
       <c r="D17" t="n">
         <v>1307.997075346682</v>
       </c>
       <c r="E17" t="n">
-        <v>988.4026618308394</v>
+        <v>988.4026618308391</v>
       </c>
       <c r="F17" t="n">
-        <v>643.6105961236332</v>
+        <v>643.6105961236328</v>
       </c>
       <c r="G17" t="n">
         <v>306.9322066248191</v>
       </c>
       <c r="H17" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="I17" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J17" t="n">
-        <v>264.8562564570435</v>
+        <v>431.827225295366</v>
       </c>
       <c r="K17" t="n">
-        <v>598.6756301468899</v>
+        <v>1040.727065271261</v>
       </c>
       <c r="L17" t="n">
-        <v>1049.709843395299</v>
+        <v>1491.76127851967</v>
       </c>
       <c r="M17" t="n">
-        <v>1583.241748067223</v>
+        <v>2025.293183191594</v>
       </c>
       <c r="N17" t="n">
-        <v>2130.020565126006</v>
+        <v>2572.072000250377</v>
       </c>
       <c r="O17" t="n">
-        <v>3009.985215455461</v>
+        <v>3075.044471129714</v>
       </c>
       <c r="P17" t="n">
-        <v>3404.759581812639</v>
+        <v>3469.818837486892</v>
       </c>
       <c r="Q17" t="n">
-        <v>3653.045943568321</v>
+        <v>3718.105199242574</v>
       </c>
       <c r="R17" t="n">
-        <v>3777.122265799376</v>
+        <v>3777.122265799377</v>
       </c>
       <c r="S17" t="n">
         <v>3733.025436408873</v>
@@ -5589,7 +5589,7 @@
         <v>94.54973691444957</v>
       </c>
       <c r="I18" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J18" t="n">
         <v>169.2197148066049</v>
@@ -5610,7 +5610,7 @@
         <v>2105.942722294443</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.442313770546</v>
+        <v>2416.442313770545</v>
       </c>
       <c r="Q18" t="n">
         <v>2574.083871417145</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.2871357488024</v>
+        <v>637.2871357488031</v>
       </c>
       <c r="C19" t="n">
-        <v>534.5447919032968</v>
+        <v>534.5447919032973</v>
       </c>
       <c r="D19" t="n">
-        <v>450.6219915733624</v>
+        <v>450.6219915733628</v>
       </c>
       <c r="E19" t="n">
-        <v>368.9027370733706</v>
+        <v>368.9027370733709</v>
       </c>
       <c r="F19" t="n">
-        <v>288.2066286578615</v>
+        <v>288.2066286578618</v>
       </c>
       <c r="G19" t="n">
-        <v>186.6976311149818</v>
+        <v>186.697631114982</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6742834152409</v>
+        <v>106.674283415241</v>
       </c>
       <c r="I19" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J19" t="n">
         <v>120.6650777629231</v>
       </c>
       <c r="K19" t="n">
-        <v>324.6522607117995</v>
+        <v>331.9114628971436</v>
       </c>
       <c r="L19" t="n">
-        <v>706.0886408449571</v>
+        <v>713.3478430303012</v>
       </c>
       <c r="M19" t="n">
-        <v>1057.504888629849</v>
+        <v>1057.50488862985</v>
       </c>
       <c r="N19" t="n">
-        <v>1398.913265335714</v>
+        <v>1398.913265335715</v>
       </c>
       <c r="O19" t="n">
-        <v>1698.242864256127</v>
+        <v>1698.242864256128</v>
       </c>
       <c r="P19" t="n">
-        <v>1930.850364689787</v>
+        <v>1930.850364689788</v>
       </c>
       <c r="Q19" t="n">
-        <v>2008.460660842301</v>
+        <v>2008.460660842303</v>
       </c>
       <c r="R19" t="n">
-        <v>1984.824042682231</v>
+        <v>1984.824042682232</v>
       </c>
       <c r="S19" t="n">
-        <v>1859.331997591458</v>
+        <v>1859.331997591459</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.759221243386</v>
+        <v>1703.759221243387</v>
       </c>
       <c r="U19" t="n">
-        <v>1480.85019345143</v>
+        <v>1480.850193451432</v>
       </c>
       <c r="V19" t="n">
-        <v>1292.359544327945</v>
+        <v>1292.359544327946</v>
       </c>
       <c r="W19" t="n">
         <v>1069.136213373386</v>
       </c>
       <c r="X19" t="n">
-        <v>907.3405015577696</v>
+        <v>907.3405015577704</v>
       </c>
       <c r="Y19" t="n">
-        <v>752.7417614966407</v>
+        <v>752.7417614966415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1915.03783430283</v>
+        <v>1902.837612729042</v>
       </c>
       <c r="C20" t="n">
-        <v>1612.26915644482</v>
+        <v>1600.068934871031</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.197296920471</v>
+        <v>1307.997075346682</v>
       </c>
       <c r="E20" t="n">
-        <v>1000.602883404628</v>
+        <v>988.4026618308391</v>
       </c>
       <c r="F20" t="n">
-        <v>655.8108176974213</v>
+        <v>643.6105961236328</v>
       </c>
       <c r="G20" t="n">
-        <v>306.9322066248191</v>
+        <v>294.7319850510306</v>
       </c>
       <c r="H20" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="I20" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J20" t="n">
-        <v>431.6565951538556</v>
+        <v>264.421576275013</v>
       </c>
       <c r="K20" t="n">
-        <v>765.475968843702</v>
+        <v>598.2409499648595</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.510182092111</v>
+        <v>1049.275163213268</v>
       </c>
       <c r="M20" t="n">
-        <v>1750.042086764036</v>
+        <v>1582.807067885193</v>
       </c>
       <c r="N20" t="n">
-        <v>2296.820903822818</v>
+        <v>2129.585884943975</v>
       </c>
       <c r="O20" t="n">
-        <v>2799.793374702155</v>
+        <v>3009.55053527343</v>
       </c>
       <c r="P20" t="n">
-        <v>3194.567741059333</v>
+        <v>3469.818837486892</v>
       </c>
       <c r="Q20" t="n">
-        <v>3653.045943568321</v>
+        <v>3718.105199242574</v>
       </c>
       <c r="R20" t="n">
-        <v>3777.122265799376</v>
+        <v>3777.122265799377</v>
       </c>
       <c r="S20" t="n">
         <v>3733.025436408873</v>
@@ -5783,19 +5783,19 @@
         <v>3593.241527875496</v>
       </c>
       <c r="U20" t="n">
-        <v>3418.105111805522</v>
+        <v>3405.904890231734</v>
       </c>
       <c r="V20" t="n">
-        <v>3153.236063544352</v>
+        <v>3141.035841970564</v>
       </c>
       <c r="W20" t="n">
-        <v>2866.66124735664</v>
+        <v>2854.461025782852</v>
       </c>
       <c r="X20" t="n">
-        <v>2559.389328177961</v>
+        <v>2547.189106604173</v>
       </c>
       <c r="Y20" t="n">
-        <v>2235.44383528455</v>
+        <v>2223.243613710762</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.5741833649128</v>
+        <v>950.5741833649126</v>
       </c>
       <c r="C21" t="n">
-        <v>776.1211540837858</v>
+        <v>776.1211540837857</v>
       </c>
       <c r="D21" t="n">
         <v>627.1867444225345</v>
@@ -5817,25 +5817,25 @@
         <v>467.9492894170789</v>
       </c>
       <c r="F21" t="n">
-        <v>321.4147314439639</v>
+        <v>321.414731443964</v>
       </c>
       <c r="G21" t="n">
         <v>185.051631276582</v>
       </c>
       <c r="H21" t="n">
-        <v>94.54973691444957</v>
+        <v>94.54973691444958</v>
       </c>
       <c r="I21" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J21" t="n">
-        <v>169.2197148066046</v>
+        <v>169.2197148066049</v>
       </c>
       <c r="K21" t="n">
-        <v>407.4839137869517</v>
+        <v>407.483913786952</v>
       </c>
       <c r="L21" t="n">
-        <v>774.1820740996171</v>
+        <v>774.1820740996175</v>
       </c>
       <c r="M21" t="n">
         <v>1221.458399321933</v>
@@ -5844,19 +5844,19 @@
         <v>1694.981442876388</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.942722294442</v>
+        <v>2105.942722294443</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.442313770545</v>
+        <v>2416.442313770546</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.083871417145</v>
       </c>
       <c r="R21" t="n">
-        <v>2573.93951800966</v>
+        <v>2573.939518009661</v>
       </c>
       <c r="S21" t="n">
-        <v>2444.50163150314</v>
+        <v>2444.501631503141</v>
       </c>
       <c r="T21" t="n">
         <v>2251.858631180996</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.2871357488024</v>
+        <v>637.2871357488031</v>
       </c>
       <c r="C22" t="n">
-        <v>534.5447919032968</v>
+        <v>534.5447919032973</v>
       </c>
       <c r="D22" t="n">
-        <v>450.6219915733624</v>
+        <v>450.6219915733628</v>
       </c>
       <c r="E22" t="n">
-        <v>368.9027370733706</v>
+        <v>368.9027370733709</v>
       </c>
       <c r="F22" t="n">
-        <v>288.2066286578615</v>
+        <v>288.2066286578618</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6976311149818</v>
+        <v>186.697631114982</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6742834152409</v>
+        <v>106.674283415241</v>
       </c>
       <c r="I22" t="n">
-        <v>75.54244531598752</v>
+        <v>75.54244531598754</v>
       </c>
       <c r="J22" t="n">
         <v>120.6650777629231</v>
@@ -5917,43 +5917,43 @@
         <v>641.2120591602957</v>
       </c>
       <c r="M22" t="n">
-        <v>985.3691047598447</v>
+        <v>992.6283069451888</v>
       </c>
       <c r="N22" t="n">
-        <v>1391.654063150371</v>
+        <v>1334.036683651053</v>
       </c>
       <c r="O22" t="n">
-        <v>1698.242864256127</v>
+        <v>1633.366282571467</v>
       </c>
       <c r="P22" t="n">
-        <v>1930.850364689787</v>
+        <v>1930.850364689788</v>
       </c>
       <c r="Q22" t="n">
-        <v>2008.460660842301</v>
+        <v>2008.460660842303</v>
       </c>
       <c r="R22" t="n">
-        <v>1984.824042682231</v>
+        <v>1984.824042682232</v>
       </c>
       <c r="S22" t="n">
-        <v>1859.331997591458</v>
+        <v>1859.331997591459</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.759221243386</v>
+        <v>1703.759221243387</v>
       </c>
       <c r="U22" t="n">
-        <v>1480.85019345143</v>
+        <v>1480.850193451432</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.359544327945</v>
+        <v>1292.359544327946</v>
       </c>
       <c r="W22" t="n">
         <v>1069.136213373386</v>
       </c>
       <c r="X22" t="n">
-        <v>907.3405015577696</v>
+        <v>907.3405015577704</v>
       </c>
       <c r="Y22" t="n">
-        <v>752.7417614966407</v>
+        <v>752.7417614966415</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1000.851867518379</v>
       </c>
       <c r="F23" t="n">
-        <v>656.0598018111727</v>
+        <v>656.0598018111723</v>
       </c>
       <c r="G23" t="n">
-        <v>307.1811907385699</v>
+        <v>307.18119073857</v>
       </c>
       <c r="H23" t="n">
-        <v>75.79142942973832</v>
+        <v>75.79142942973834</v>
       </c>
       <c r="I23" t="n">
-        <v>75.79142942973832</v>
+        <v>75.79142942973834</v>
       </c>
       <c r="J23" t="n">
-        <v>432.0762094091168</v>
+        <v>264.6705603887638</v>
       </c>
       <c r="K23" t="n">
-        <v>765.8955830989632</v>
+        <v>598.4899340786101</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.929796347372</v>
+        <v>1049.524147327019</v>
       </c>
       <c r="M23" t="n">
-        <v>1750.461701019296</v>
+        <v>1583.056051998943</v>
       </c>
       <c r="N23" t="n">
-        <v>2309.270109510358</v>
+        <v>2207.529026487799</v>
       </c>
       <c r="O23" t="n">
-        <v>2812.242580389694</v>
+        <v>3087.493676817254</v>
       </c>
       <c r="P23" t="n">
-        <v>3207.016946746873</v>
+        <v>3482.268043174432</v>
       </c>
       <c r="Q23" t="n">
-        <v>3665.495149255861</v>
+        <v>3730.554404930114</v>
       </c>
       <c r="R23" t="n">
-        <v>3789.571471486916</v>
+        <v>3789.571471486917</v>
       </c>
       <c r="S23" t="n">
-        <v>3745.474642096411</v>
+        <v>3745.474642096413</v>
       </c>
       <c r="T23" t="n">
-        <v>3605.690733563034</v>
+        <v>3605.690733563036</v>
       </c>
       <c r="U23" t="n">
         <v>3418.354095919273</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.8231674786625</v>
+        <v>950.8231674786635</v>
       </c>
       <c r="C24" t="n">
-        <v>776.3701381975355</v>
+        <v>776.3701381975366</v>
       </c>
       <c r="D24" t="n">
-        <v>627.4357285362844</v>
+        <v>627.4357285362853</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1982735308288</v>
+        <v>468.1982735308299</v>
       </c>
       <c r="F24" t="n">
-        <v>321.6637155577139</v>
+        <v>321.6637155577148</v>
       </c>
       <c r="G24" t="n">
-        <v>185.3006153903327</v>
+        <v>185.3006153903329</v>
       </c>
       <c r="H24" t="n">
-        <v>94.79872102820036</v>
+        <v>94.79872102820042</v>
       </c>
       <c r="I24" t="n">
-        <v>75.79142942973832</v>
+        <v>75.79142942973834</v>
       </c>
       <c r="J24" t="n">
-        <v>169.4686989203555</v>
+        <v>169.4686989203564</v>
       </c>
       <c r="K24" t="n">
-        <v>407.7328979007025</v>
+        <v>407.7328979007034</v>
       </c>
       <c r="L24" t="n">
-        <v>774.4310582133679</v>
+        <v>774.4310582133687</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.707383435684</v>
+        <v>1221.707383435685</v>
       </c>
       <c r="N24" t="n">
-        <v>1695.230426990138</v>
+        <v>1695.230426990139</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.191706408193</v>
+        <v>2106.191706408194</v>
       </c>
       <c r="P24" t="n">
-        <v>2416.691297884296</v>
+        <v>2416.691297884297</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.332855530895</v>
+        <v>2574.332855530896</v>
       </c>
       <c r="R24" t="n">
-        <v>2574.188502123411</v>
+        <v>2574.188502123412</v>
       </c>
       <c r="S24" t="n">
-        <v>2444.750615616891</v>
+        <v>2444.750615616892</v>
       </c>
       <c r="T24" t="n">
-        <v>2252.107615294746</v>
+        <v>2252.107615294747</v>
       </c>
       <c r="U24" t="n">
         <v>2024.039768429162</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.887660197419</v>
+        <v>1788.88766019742</v>
       </c>
       <c r="W24" t="n">
-        <v>1534.650303469217</v>
+        <v>1534.650303469218</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.798803263684</v>
+        <v>1326.798803263685</v>
       </c>
       <c r="Y24" t="n">
-        <v>1119.038504498731</v>
+        <v>1119.038504498732</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.5361198625532</v>
+        <v>637.5361198625538</v>
       </c>
       <c r="C25" t="n">
-        <v>534.7937760170475</v>
+        <v>534.7937760170481</v>
       </c>
       <c r="D25" t="n">
-        <v>450.8709756871132</v>
+        <v>450.8709756871136</v>
       </c>
       <c r="E25" t="n">
-        <v>369.1517211871214</v>
+        <v>369.1517211871217</v>
       </c>
       <c r="F25" t="n">
-        <v>288.4556127716123</v>
+        <v>288.4556127716126</v>
       </c>
       <c r="G25" t="n">
-        <v>186.9466152287326</v>
+        <v>186.9466152287328</v>
       </c>
       <c r="H25" t="n">
-        <v>106.9232675289917</v>
+        <v>106.9232675289918</v>
       </c>
       <c r="I25" t="n">
-        <v>75.79142942973832</v>
+        <v>75.79142942973834</v>
       </c>
       <c r="J25" t="n">
         <v>120.9140618766739</v>
       </c>
       <c r="K25" t="n">
-        <v>324.9012448255503</v>
+        <v>324.9012448255502</v>
       </c>
       <c r="L25" t="n">
-        <v>641.4610432740465</v>
+        <v>641.4610432740462</v>
       </c>
       <c r="M25" t="n">
-        <v>985.6180888735955</v>
+        <v>1050.494670558257</v>
       </c>
       <c r="N25" t="n">
-        <v>1391.903047264122</v>
+        <v>1399.162249449466</v>
       </c>
       <c r="O25" t="n">
-        <v>1698.491848369878</v>
+        <v>1698.49184836988</v>
       </c>
       <c r="P25" t="n">
-        <v>1931.099348803537</v>
+        <v>1931.099348803539</v>
       </c>
       <c r="Q25" t="n">
-        <v>2008.709644956052</v>
+        <v>2008.709644956053</v>
       </c>
       <c r="R25" t="n">
-        <v>1985.073026795981</v>
+        <v>1985.073026795983</v>
       </c>
       <c r="S25" t="n">
-        <v>1859.580981705209</v>
+        <v>1859.58098170521</v>
       </c>
       <c r="T25" t="n">
-        <v>1704.008205357136</v>
+        <v>1704.008205357138</v>
       </c>
       <c r="U25" t="n">
-        <v>1481.099177565181</v>
+        <v>1481.099177565182</v>
       </c>
       <c r="V25" t="n">
-        <v>1292.608528441696</v>
+        <v>1292.608528441697</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.385197487136</v>
+        <v>1069.385197487137</v>
       </c>
       <c r="X25" t="n">
-        <v>907.5894856715204</v>
+        <v>907.5894856715212</v>
       </c>
       <c r="Y25" t="n">
-        <v>752.9907456103915</v>
+        <v>752.9907456103923</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2067.381871868335</v>
       </c>
       <c r="C26" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688454</v>
       </c>
       <c r="D26" t="n">
-        <v>1424.147453842236</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E26" t="n">
-        <v>1080.356100004523</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F26" t="n">
-        <v>711.3670939754463</v>
+        <v>711.367093975446</v>
       </c>
       <c r="G26" t="n">
-        <v>338.2915425809741</v>
+        <v>338.2915425809737</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J26" t="n">
-        <v>271.583971909298</v>
+        <v>271.5839719092979</v>
       </c>
       <c r="K26" t="n">
-        <v>926.3073040445975</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L26" t="n">
-        <v>1377.341517293006</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M26" t="n">
-        <v>1910.87342196493</v>
+        <v>1589.969463519477</v>
       </c>
       <c r="N26" t="n">
-        <v>2457.652239023712</v>
+        <v>2136.748280578259</v>
       </c>
       <c r="O26" t="n">
-        <v>2960.624709903049</v>
+        <v>2904.391691000892</v>
       </c>
       <c r="P26" t="n">
-        <v>3673.979797349995</v>
+        <v>3617.746778447838</v>
       </c>
       <c r="Q26" t="n">
-        <v>4011.165725282574</v>
+        <v>4076.224980956826</v>
       </c>
       <c r="R26" t="n">
-        <v>4135.24204751363</v>
+        <v>4135.242047513629</v>
       </c>
       <c r="S26" t="n">
-        <v>4066.948277801256</v>
+        <v>4066.948277801255</v>
       </c>
       <c r="T26" t="n">
         <v>3902.967428946009</v>
       </c>
       <c r="U26" t="n">
-        <v>3691.433850980377</v>
+        <v>3691.433850980376</v>
       </c>
       <c r="V26" t="n">
-        <v>3402.367862397338</v>
+        <v>3402.367862397336</v>
       </c>
       <c r="W26" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887754</v>
       </c>
       <c r="X26" t="n">
         <v>2760.127246387206</v>
@@ -6288,28 +6288,28 @@
         <v>634.3491400568196</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1116850513641</v>
+        <v>475.111685051364</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5771270782491</v>
+        <v>328.577127078249</v>
       </c>
       <c r="G27" t="n">
-        <v>192.2140269108672</v>
+        <v>192.2140269108671</v>
       </c>
       <c r="H27" t="n">
-        <v>101.7121325487347</v>
+        <v>101.7121325487346</v>
       </c>
       <c r="I27" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J27" t="n">
-        <v>176.3821104408899</v>
+        <v>176.3821104408898</v>
       </c>
       <c r="K27" t="n">
-        <v>414.6463094212377</v>
+        <v>414.6463094212369</v>
       </c>
       <c r="L27" t="n">
-        <v>781.344469733903</v>
+        <v>781.3444697339022</v>
       </c>
       <c r="M27" t="n">
         <v>1228.620794956219</v>
@@ -6361,25 +6361,25 @@
         <v>683.8305684178259</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5600510476786</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D28" t="n">
-        <v>523.4403103958741</v>
+        <v>448.7715435986459</v>
       </c>
       <c r="E28" t="n">
-        <v>417.5241155740123</v>
+        <v>342.8553487767841</v>
       </c>
       <c r="F28" t="n">
-        <v>312.6310668366333</v>
+        <v>237.962300039405</v>
       </c>
       <c r="G28" t="n">
-        <v>186.9251289718835</v>
+        <v>138.0336193713959</v>
       </c>
       <c r="H28" t="n">
-        <v>82.7048409502726</v>
+        <v>138.0336193713959</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J28" t="n">
         <v>168.9886338724048</v>
@@ -6443,13 +6443,13 @@
         <v>1740.416253688455</v>
       </c>
       <c r="D29" t="n">
-        <v>1424.147453842236</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.356100004523</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754463</v>
+        <v>711.3670939754461</v>
       </c>
       <c r="G29" t="n">
         <v>338.2915425809741</v>
@@ -6461,34 +6461,34 @@
         <v>82.70484095027257</v>
       </c>
       <c r="J29" t="n">
-        <v>438.989620929651</v>
+        <v>271.5839719092979</v>
       </c>
       <c r="K29" t="n">
-        <v>772.8089946194973</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L29" t="n">
-        <v>1223.843207867906</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M29" t="n">
-        <v>1757.37511253983</v>
+        <v>1589.969463519477</v>
       </c>
       <c r="N29" t="n">
-        <v>2304.153929598612</v>
+        <v>2569.721735746124</v>
       </c>
       <c r="O29" t="n">
-        <v>3184.118579928067</v>
+        <v>3433.164252843966</v>
       </c>
       <c r="P29" t="n">
-        <v>3578.892946285245</v>
+        <v>3827.938619201144</v>
       </c>
       <c r="Q29" t="n">
-        <v>4011.165725282573</v>
+        <v>4076.224980956826</v>
       </c>
       <c r="R29" t="n">
         <v>4135.242047513629</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.948277801256</v>
+        <v>4066.948277801255</v>
       </c>
       <c r="T29" t="n">
         <v>3902.967428946009</v>
@@ -6540,13 +6540,13 @@
         <v>82.70484095027257</v>
       </c>
       <c r="J30" t="n">
-        <v>176.3821104408906</v>
+        <v>176.3821104408898</v>
       </c>
       <c r="K30" t="n">
-        <v>414.6463094212377</v>
+        <v>414.6463094212369</v>
       </c>
       <c r="L30" t="n">
-        <v>781.344469733903</v>
+        <v>781.3444697339022</v>
       </c>
       <c r="M30" t="n">
         <v>1228.620794956219</v>
@@ -6601,19 +6601,19 @@
         <v>556.8912842504503</v>
       </c>
       <c r="D31" t="n">
-        <v>556.8912842504503</v>
+        <v>448.7715435986459</v>
       </c>
       <c r="E31" t="n">
-        <v>472.8528939951356</v>
+        <v>342.8553487767841</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9598452577566</v>
+        <v>312.6310668366332</v>
       </c>
       <c r="G31" t="n">
-        <v>242.2539073930068</v>
+        <v>186.9251289718835</v>
       </c>
       <c r="H31" t="n">
-        <v>138.0336193713959</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="I31" t="n">
         <v>82.70484095027257</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2055.280031362924</v>
+        <v>2055.280031362923</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.239705990723</v>
+        <v>1730.239705990722</v>
       </c>
       <c r="D32" t="n">
         <v>1415.896198952182</v>
@@ -6689,46 +6689,46 @@
         <v>706.9664247007513</v>
       </c>
       <c r="G32" t="n">
-        <v>335.816166113958</v>
+        <v>335.8161661139579</v>
       </c>
       <c r="H32" t="n">
-        <v>82.15475729093569</v>
+        <v>82.15475729093566</v>
       </c>
       <c r="I32" t="n">
-        <v>82.15475729093569</v>
+        <v>82.15475729093566</v>
       </c>
       <c r="J32" t="n">
-        <v>438.4395372703141</v>
+        <v>271.033888249961</v>
       </c>
       <c r="K32" t="n">
-        <v>772.2589109601604</v>
+        <v>873.3099531765517</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.293124208569</v>
+        <v>1324.34416642496</v>
       </c>
       <c r="M32" t="n">
-        <v>1756.825028880493</v>
+        <v>1857.876071096885</v>
       </c>
       <c r="N32" t="n">
-        <v>2303.603845939276</v>
+        <v>2837.628343323531</v>
       </c>
       <c r="O32" t="n">
-        <v>2811.828252359795</v>
+        <v>3340.600814202868</v>
       </c>
       <c r="P32" t="n">
-        <v>3525.183339806741</v>
+        <v>3735.375180560046</v>
       </c>
       <c r="Q32" t="n">
-        <v>3983.661542315729</v>
+        <v>3983.661542315728</v>
       </c>
       <c r="R32" t="n">
-        <v>4107.737864546784</v>
+        <v>4107.737864546783</v>
       </c>
       <c r="S32" t="n">
-        <v>4041.36938764209</v>
+        <v>4041.369387642089</v>
       </c>
       <c r="T32" t="n">
-        <v>3879.313831594523</v>
+        <v>3879.313831594522</v>
       </c>
       <c r="U32" t="n">
         <v>3669.705546436569</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.1864953398609</v>
+        <v>957.1864953398606</v>
       </c>
       <c r="C33" t="n">
-        <v>782.7334660587339</v>
+        <v>782.7334660587336</v>
       </c>
       <c r="D33" t="n">
-        <v>633.7990563974827</v>
+        <v>633.7990563974823</v>
       </c>
       <c r="E33" t="n">
-        <v>474.5616013920272</v>
+        <v>474.5616013920268</v>
       </c>
       <c r="F33" t="n">
-        <v>328.0270434189122</v>
+        <v>328.0270434189118</v>
       </c>
       <c r="G33" t="n">
-        <v>191.6639432515303</v>
+        <v>191.6639432515299</v>
       </c>
       <c r="H33" t="n">
-        <v>101.1620488893978</v>
+        <v>101.1620488893974</v>
       </c>
       <c r="I33" t="n">
-        <v>82.15475729093569</v>
+        <v>82.15475729093566</v>
       </c>
       <c r="J33" t="n">
-        <v>175.8320267815533</v>
+        <v>175.8320267815529</v>
       </c>
       <c r="K33" t="n">
-        <v>414.0962257619004</v>
+        <v>414.0962257619</v>
       </c>
       <c r="L33" t="n">
-        <v>780.7943860745656</v>
+        <v>780.7943860745653</v>
       </c>
       <c r="M33" t="n">
         <v>1228.070711296881</v>
@@ -6816,7 +6816,7 @@
         <v>1795.250988058617</v>
       </c>
       <c r="W33" t="n">
-        <v>1541.013631330416</v>
+        <v>1541.013631330415</v>
       </c>
       <c r="X33" t="n">
         <v>1333.162131124883</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>715.703955874053</v>
+        <v>715.7039558740537</v>
       </c>
       <c r="C34" t="n">
-        <v>590.6899645143566</v>
+        <v>590.6899645143574</v>
       </c>
       <c r="D34" t="n">
-        <v>484.4955166702313</v>
+        <v>484.4955166702322</v>
       </c>
       <c r="E34" t="n">
-        <v>380.5046146560487</v>
+        <v>380.5046146560496</v>
       </c>
       <c r="F34" t="n">
-        <v>277.5368587263488</v>
+        <v>361.6338831753819</v>
       </c>
       <c r="G34" t="n">
-        <v>153.7562136692783</v>
+        <v>237.8532381183114</v>
       </c>
       <c r="H34" t="n">
-        <v>82.15475729093569</v>
+        <v>135.5582429043798</v>
       </c>
       <c r="I34" t="n">
-        <v>82.15475729093569</v>
+        <v>82.15475729093566</v>
       </c>
       <c r="J34" t="n">
         <v>170.3255296938743</v>
       </c>
       <c r="K34" t="n">
-        <v>417.3608525987537</v>
+        <v>417.3608525987538</v>
       </c>
       <c r="L34" t="n">
-        <v>776.9687910032528</v>
+        <v>776.968791003253</v>
       </c>
       <c r="M34" t="n">
         <v>1164.173976558805</v>
@@ -6871,7 +6871,7 @@
         <v>1548.630493220673</v>
       </c>
       <c r="O34" t="n">
-        <v>1891.008232097089</v>
+        <v>1891.00823209709</v>
       </c>
       <c r="P34" t="n">
         <v>2166.663872486752</v>
@@ -6886,10 +6886,10 @@
         <v>2093.650350316045</v>
       </c>
       <c r="T34" t="n">
-        <v>1915.805926453781</v>
+        <v>1915.805926453782</v>
       </c>
       <c r="U34" t="n">
-        <v>1670.625251147635</v>
+        <v>1670.625251147636</v>
       </c>
       <c r="V34" t="n">
         <v>1459.862954509959</v>
@@ -6901,7 +6901,7 @@
         <v>1030.300616711402</v>
       </c>
       <c r="Y34" t="n">
-        <v>853.4302291360823</v>
+        <v>853.4302291360829</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1886.94776046765</v>
+        <v>1886.947760467651</v>
       </c>
       <c r="C35" t="n">
         <v>1588.687569101515</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.124196069041</v>
+        <v>1301.124196069042</v>
       </c>
       <c r="E35" t="n">
-        <v>986.0382690450737</v>
+        <v>986.038269045074</v>
       </c>
       <c r="F35" t="n">
-        <v>645.7546898297428</v>
+        <v>645.754689829743</v>
       </c>
       <c r="G35" t="n">
         <v>301.3845652490158</v>
@@ -6935,52 +6935,52 @@
         <v>74.50329043205964</v>
       </c>
       <c r="J35" t="n">
-        <v>430.7880704114381</v>
+        <v>263.382421391085</v>
       </c>
       <c r="K35" t="n">
-        <v>764.6074441012845</v>
+        <v>918.1057535263844</v>
       </c>
       <c r="L35" t="n">
-        <v>1215.641657349693</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M35" t="n">
-        <v>1749.173562021617</v>
+        <v>1973.335438995201</v>
       </c>
       <c r="N35" t="n">
-        <v>2295.9523790804</v>
+        <v>2520.114256053983</v>
       </c>
       <c r="O35" t="n">
-        <v>2798.924849959737</v>
+        <v>3023.08672693332</v>
       </c>
       <c r="P35" t="n">
-        <v>3193.699216316914</v>
+        <v>3417.861093290498</v>
       </c>
       <c r="Q35" t="n">
-        <v>3601.088199371927</v>
+        <v>3666.14745504618</v>
       </c>
       <c r="R35" t="n">
         <v>3725.164521602982</v>
       </c>
       <c r="S35" t="n">
-        <v>3685.576178704353</v>
+        <v>3685.576178704354</v>
       </c>
       <c r="T35" t="n">
-        <v>3550.300756662852</v>
+        <v>3550.300756662853</v>
       </c>
       <c r="U35" t="n">
-        <v>3367.472605510965</v>
+        <v>3367.472605510966</v>
       </c>
       <c r="V35" t="n">
-        <v>3107.112043741671</v>
+        <v>3107.112043741672</v>
       </c>
       <c r="W35" t="n">
-        <v>2825.045714045833</v>
+        <v>2825.045714045834</v>
       </c>
       <c r="X35" t="n">
         <v>2522.282281359031</v>
       </c>
       <c r="Y35" t="n">
-        <v>2202.845274957495</v>
+        <v>2202.845274957496</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.6885754217474</v>
+        <v>604.6885754217471</v>
       </c>
       <c r="C37" t="n">
-        <v>506.4547180681171</v>
+        <v>506.4547180681168</v>
       </c>
       <c r="D37" t="n">
-        <v>427.040404230058</v>
+        <v>427.0404042300578</v>
       </c>
       <c r="E37" t="n">
-        <v>349.8296362219415</v>
+        <v>349.8296362219413</v>
       </c>
       <c r="F37" t="n">
-        <v>273.6420142983077</v>
+        <v>273.6420142983076</v>
       </c>
       <c r="G37" t="n">
-        <v>176.6415032473033</v>
+        <v>176.6415032473032</v>
       </c>
       <c r="H37" t="n">
         <v>101.1266420394377</v>
@@ -7099,10 +7099,10 @@
         <v>323.6131058278715</v>
       </c>
       <c r="L37" t="n">
-        <v>640.1729042763676</v>
+        <v>640.1729042763675</v>
       </c>
       <c r="M37" t="n">
-        <v>984.3299498759166</v>
+        <v>984.3299498759163</v>
       </c>
       <c r="N37" t="n">
         <v>1325.738326581781</v>
@@ -7123,22 +7123,22 @@
         <v>1795.174031821276</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.109741965079</v>
+        <v>1644.109741965078</v>
       </c>
       <c r="U37" t="n">
         <v>1425.709200664999</v>
       </c>
       <c r="V37" t="n">
-        <v>1241.727038033389</v>
+        <v>1241.727038033388</v>
       </c>
       <c r="W37" t="n">
-        <v>1023.012193570705</v>
+        <v>1023.012193570704</v>
       </c>
       <c r="X37" t="n">
-        <v>865.724968246964</v>
+        <v>865.7249682469637</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.6347146777105</v>
+        <v>715.6347146777102</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1301.124196069041</v>
       </c>
       <c r="E38" t="n">
-        <v>986.0382690450738</v>
+        <v>986.0382690450733</v>
       </c>
       <c r="F38" t="n">
-        <v>645.7546898297428</v>
+        <v>645.7546898297425</v>
       </c>
       <c r="G38" t="n">
         <v>301.3845652490158</v>
@@ -7175,25 +7175,25 @@
         <v>263.382421391085</v>
       </c>
       <c r="K38" t="n">
-        <v>600.3230066500535</v>
+        <v>918.1057535263844</v>
       </c>
       <c r="L38" t="n">
-        <v>1051.357219898462</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M38" t="n">
-        <v>1973.3354389952</v>
+        <v>1973.335438995199</v>
       </c>
       <c r="N38" t="n">
         <v>2520.114256053982</v>
       </c>
       <c r="O38" t="n">
-        <v>3023.086726933319</v>
+        <v>3023.086726933318</v>
       </c>
       <c r="P38" t="n">
-        <v>3417.861093290497</v>
+        <v>3417.861093290496</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.147455046179</v>
+        <v>3666.147455046178</v>
       </c>
       <c r="R38" t="n">
         <v>3725.164521602981</v>
@@ -7202,22 +7202,22 @@
         <v>3685.576178704353</v>
       </c>
       <c r="T38" t="n">
-        <v>3550.300756662852</v>
+        <v>3550.300756662851</v>
       </c>
       <c r="U38" t="n">
-        <v>3367.472605510966</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V38" t="n">
-        <v>3107.112043741672</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W38" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045833</v>
       </c>
       <c r="X38" t="n">
-        <v>2522.282281359031</v>
+        <v>2522.28228135903</v>
       </c>
       <c r="Y38" t="n">
-        <v>2202.845274957496</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>74.50329043205963</v>
       </c>
       <c r="J39" t="n">
-        <v>168.1805599226772</v>
+        <v>168.1805599226769</v>
       </c>
       <c r="K39" t="n">
-        <v>406.4447589030243</v>
+        <v>406.444758903024</v>
       </c>
       <c r="L39" t="n">
-        <v>773.1429192156895</v>
+        <v>773.1429192156893</v>
       </c>
       <c r="M39" t="n">
         <v>1220.419244438005</v>
@@ -7312,16 +7312,16 @@
         <v>506.4547180681168</v>
       </c>
       <c r="D40" t="n">
-        <v>427.0404042300577</v>
+        <v>427.0404042300578</v>
       </c>
       <c r="E40" t="n">
-        <v>349.8296362219412</v>
+        <v>349.8296362219413</v>
       </c>
       <c r="F40" t="n">
-        <v>273.6420142983075</v>
+        <v>273.6420142983076</v>
       </c>
       <c r="G40" t="n">
-        <v>176.641503247303</v>
+        <v>176.6415032473032</v>
       </c>
       <c r="H40" t="n">
         <v>101.1266420394377</v>
@@ -7333,10 +7333,10 @@
         <v>119.6259228789952</v>
       </c>
       <c r="K40" t="n">
-        <v>323.6131058278717</v>
+        <v>323.6131058278715</v>
       </c>
       <c r="L40" t="n">
-        <v>640.1729042763677</v>
+        <v>640.1729042763676</v>
       </c>
       <c r="M40" t="n">
         <v>984.3299498759166</v>
@@ -7360,19 +7360,19 @@
         <v>1795.174031821276</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.109741965078</v>
+        <v>1644.109741965079</v>
       </c>
       <c r="U40" t="n">
         <v>1425.709200664999</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.727038033388</v>
+        <v>1241.727038033389</v>
       </c>
       <c r="W40" t="n">
-        <v>1023.012193570704</v>
+        <v>1023.012193570705</v>
       </c>
       <c r="X40" t="n">
-        <v>865.7249682469637</v>
+        <v>865.7249682469641</v>
       </c>
       <c r="Y40" t="n">
         <v>715.6347146777102</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232655</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>3020.286799287129</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.31264836878</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.622949341042</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052941</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770413</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7606,13 +7606,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012.430767830336</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1690.917883837997</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D44" t="n">
-        <v>1380.10181817932</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.763198529149</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>678.2269266876151</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>310.6041094806849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>3020.286799287129</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2694.270673974122</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2351.580974946384</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7746,7 +7746,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7825,13 +7825,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
         <v>1938.403572105846</v>
@@ -7849,7 +7849,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8541,16 +8541,16 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.43291849744205</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.43291849744173</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.4329184974398</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.43291849744162</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.598721155460225e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4390708909398882</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>277.8590568545944</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.9242614937804</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>66.15549076392307</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>12.15110245684718</v>
+        <v>78.47894689906491</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>267.3443833770671</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>89.79754159282552</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>364.1111577964699</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>185.844865900653</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>271.1683749866104</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>5.304985395134281</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.877698079828406e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>71.37734095806411</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>160.7097184841719</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>3.152738958709165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>392.3700145705189</v>
+        <v>71.37734095806275</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>236.3492730829122</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>295.5781780789707</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>299.6238579907118</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3492730829117</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.07821935805021</v>
+        <v>12.07821935805066</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12.07821935805066</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>12.07821935804992</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.92207912925599</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>25.51948462477326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.65902652088164</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.92207912925595</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.25605420454178</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30.38660344723326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>52.86945075730974</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>67.27103207741382</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.981554650711303</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.3463093107765</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.981554650711359</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606305.7208539008</v>
+        <v>606305.7208539009</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606305.7208539008</v>
+        <v>606305.7208539009</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659166.0130956344</v>
+        <v>659166.0130956345</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666986.280076276</v>
+        <v>666986.2800762759</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666986.280076276</v>
+        <v>666986.2800762759</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657262.885312852</v>
+        <v>657262.8853128519</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="D2" t="n">
-        <v>799861.7300691413</v>
+        <v>799861.7300691409</v>
       </c>
       <c r="E2" t="n">
-        <v>749330.0084419711</v>
+        <v>749330.0084419716</v>
       </c>
       <c r="F2" t="n">
-        <v>749330.0084419711</v>
+        <v>749330.008441971</v>
       </c>
       <c r="G2" t="n">
-        <v>799578.3350132975</v>
+        <v>799578.3350132979</v>
       </c>
       <c r="H2" t="n">
-        <v>799578.3350132977</v>
+        <v>799578.3350132976</v>
       </c>
       <c r="I2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="J2" t="n">
-        <v>797504.2024851473</v>
+        <v>797504.2024851474</v>
       </c>
       <c r="K2" t="n">
-        <v>797504.2024851474</v>
+        <v>797504.2024851469</v>
       </c>
       <c r="L2" t="n">
-        <v>798567.533949291</v>
+        <v>798567.5339492906</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176756</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="O2" t="n">
         <v>745417.7346425962</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42223.67283033877</v>
+        <v>42223.67283033861</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>827.6263064090498</v>
+        <v>827.6263064091037</v>
       </c>
       <c r="J3" t="n">
-        <v>41026.79060843636</v>
+        <v>41026.79060843631</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16370.2431620697</v>
+        <v>16370.24316206969</v>
       </c>
       <c r="M3" t="n">
-        <v>206087.2139042975</v>
+        <v>206087.2139042977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>58537.08319119116</v>
+        <v>58537.08319119117</v>
       </c>
       <c r="F4" t="n">
-        <v>58537.08319119109</v>
+        <v>58537.08319119114</v>
       </c>
       <c r="G4" t="n">
-        <v>82100.4448978889</v>
+        <v>82100.44489788885</v>
       </c>
       <c r="H4" t="n">
-        <v>82100.4448978889</v>
+        <v>82100.44489788887</v>
       </c>
       <c r="I4" t="n">
-        <v>82469.77148418536</v>
+        <v>82469.7714841854</v>
       </c>
       <c r="J4" t="n">
-        <v>75805.0095399502</v>
+        <v>75805.00953995016</v>
       </c>
       <c r="K4" t="n">
-        <v>75805.00953995017</v>
+        <v>75805.00953995016</v>
       </c>
       <c r="L4" t="n">
-        <v>76828.59500547318</v>
+        <v>76828.59500547322</v>
       </c>
       <c r="M4" t="n">
-        <v>83375.54921344898</v>
+        <v>83375.54921344901</v>
       </c>
       <c r="N4" t="n">
         <v>83375.54921344896</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.66948357398</v>
+        <v>56995.66948357395</v>
       </c>
       <c r="P4" t="n">
-        <v>56995.66948357398</v>
+        <v>56995.6694835739</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>79045.25103356694</v>
+        <v>79045.25103356695</v>
       </c>
       <c r="F5" t="n">
-        <v>79045.25103356694</v>
+        <v>79045.25103356696</v>
       </c>
       <c r="G5" t="n">
         <v>86678.59187232463</v>
@@ -26491,13 +26491,13 @@
         <v>86867.81979877524</v>
       </c>
       <c r="J5" t="n">
-        <v>90108.14210422119</v>
+        <v>90108.14210422117</v>
       </c>
       <c r="K5" t="n">
         <v>90108.14210422117</v>
       </c>
       <c r="L5" t="n">
-        <v>89850.31738976343</v>
+        <v>89850.31738976341</v>
       </c>
       <c r="M5" t="n">
         <v>86264.06787191605</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339643.6910830093</v>
+        <v>339639.2775051407</v>
       </c>
       <c r="C6" t="n">
-        <v>339643.6910830085</v>
+        <v>339639.2775051406</v>
       </c>
       <c r="D6" t="n">
-        <v>338259.2931297629</v>
+        <v>338257.6162180997</v>
       </c>
       <c r="E6" t="n">
-        <v>-551425.8132667231</v>
+        <v>-551557.0586953786</v>
       </c>
       <c r="F6" t="n">
-        <v>611747.6742172132</v>
+        <v>611616.4287885572</v>
       </c>
       <c r="G6" t="n">
-        <v>588575.6254127452</v>
+        <v>588573.2218470937</v>
       </c>
       <c r="H6" t="n">
-        <v>630799.2982430842</v>
+        <v>630796.8946774319</v>
       </c>
       <c r="I6" t="n">
-        <v>630350.5080283062</v>
+        <v>630350.5080283061</v>
       </c>
       <c r="J6" t="n">
-        <v>590564.2602325396</v>
+        <v>590556.5383783538</v>
       </c>
       <c r="K6" t="n">
-        <v>631591.0508409761</v>
+        <v>631583.3289867897</v>
       </c>
       <c r="L6" t="n">
-        <v>615518.3783919846</v>
+        <v>615513.383028732</v>
       </c>
       <c r="M6" t="n">
-        <v>424788.894628013</v>
+        <v>424788.8946280128</v>
       </c>
       <c r="N6" t="n">
-        <v>630876.1085323108</v>
+        <v>630876.1085323105</v>
       </c>
       <c r="O6" t="n">
-        <v>610166.5718372405</v>
+        <v>610025.2949373043</v>
       </c>
       <c r="P6" t="n">
-        <v>610166.5718372404</v>
+        <v>610025.2949373043</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H2" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I2" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="J2" t="n">
         <v>41.57692977292598</v>
@@ -26713,19 +26713,19 @@
         <v>41.57692977292598</v>
       </c>
       <c r="L2" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="M2" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="N2" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>844.3908914513911</v>
+        <v>844.3908914513913</v>
       </c>
       <c r="F4" t="n">
-        <v>844.3908914513911</v>
+        <v>844.3908914513916</v>
       </c>
       <c r="G4" t="n">
-        <v>944.2805664498441</v>
+        <v>944.2805664498442</v>
       </c>
       <c r="H4" t="n">
-        <v>944.2805664498441</v>
+        <v>944.2805664498442</v>
       </c>
       <c r="I4" t="n">
-        <v>947.392867871729</v>
+        <v>947.3928678717292</v>
       </c>
       <c r="J4" t="n">
         <v>1033.810511878407</v>
@@ -26820,16 +26820,16 @@
         <v>1026.934466136696</v>
       </c>
       <c r="M4" t="n">
-        <v>931.2911304007455</v>
+        <v>931.2911304007456</v>
       </c>
       <c r="N4" t="n">
-        <v>931.2911304007454</v>
+        <v>931.2911304007453</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.55676407298473</v>
+        <v>18.55676407298465</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.02016569994124</v>
+        <v>23.02016569994133</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.46280395258713</v>
+        <v>20.46280395258711</v>
       </c>
       <c r="M2" t="n">
-        <v>26.51233266600547</v>
+        <v>26.51233266600543</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>837.5148457096797</v>
+        <v>837.5148457096799</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.88967499845296</v>
+        <v>99.88967499845262</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.112301421884883</v>
+        <v>3.112301421885085</v>
       </c>
       <c r="J4" t="n">
-        <v>86.41764400667842</v>
+        <v>86.41764400667796</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>741.871509973729</v>
+        <v>741.8715099737296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.55676407298473</v>
+        <v>18.55676407298465</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.02016569994124</v>
+        <v>23.02016569994133</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>837.5148457096797</v>
+        <v>837.5148457096799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.88967499845296</v>
+        <v>99.88967499845262</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>200.4631554404359</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28056,25 +28056,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
-        <v>221.8891683389821</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28506,7 +28506,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859256</v>
@@ -28527,7 +28527,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
         <v>46.97513661859256</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7.332527459943606</v>
       </c>
       <c r="L19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="M19" t="n">
-        <v>7.332527459942412</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="S19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>7.332527459943549</v>
       </c>
       <c r="N22" t="n">
-        <v>65.53190069157729</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>7.332527459942185</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="S22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="C25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="D25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="E25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="F25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="G25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="H25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="I25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,13 +29226,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="N25" t="n">
-        <v>65.53190069157729</v>
+        <v>7.332527459944629</v>
       </c>
       <c r="O25" t="n">
-        <v>7.332527459942185</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="S25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="T25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="U25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="V25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="W25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="X25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.53190069157729</v>
+        <v>65.53190069157721</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="C32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="D32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="E32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="F32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="G32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="H32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="T32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="U32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="V32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="W32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="X32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="C34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="D34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="E34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="F34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="G34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="H34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="I34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="J34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="K34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="L34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="M34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="N34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="O34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="P34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="R34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="S34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="T34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="U34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="V34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="W34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="X34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.48296965252838</v>
+        <v>43.48296965252844</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853379</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="C40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="D40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="E40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="F40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="G40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="H40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="I40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="S40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="T40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="U40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="V40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="W40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="X40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.99530231853387</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.99530231853385</v>
+        <v>69.9953023185335</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233482</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233482</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.461131202644</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
-        <v>6.598225711743296</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>242.2199194661546</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554004</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>111.0461170396665</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.2199194661524</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>603.7347539103531</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.2260718596524</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>615.0503434099949</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36042,13 +36042,13 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>213.3801870042632</v>
       </c>
       <c r="L19" t="n">
-        <v>385.2892728617754</v>
+        <v>385.2892728617753</v>
       </c>
       <c r="M19" t="n">
-        <v>354.9659068534262</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.7112624624929</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>464.9174769832949</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597685</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36285,16 +36285,16 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>354.9659068534274</v>
       </c>
       <c r="N22" t="n">
-        <v>410.3888468591174</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>309.685657682582</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>300.4889718366877</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>564.4529378697587</v>
+        <v>630.7807823119762</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359778</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>413.165280085061</v>
       </c>
       <c r="N25" t="n">
-        <v>410.3888468591174</v>
+        <v>352.1894736274847</v>
       </c>
       <c r="O25" t="n">
-        <v>309.685657682582</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>775.3973842652861</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.591846396545</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609574</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013299</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>872.1641586846889</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>436.6391707043724</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597786</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013299</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>608.3596615420108</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>513.3579862833533</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597736</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>89.06138626559456</v>
+        <v>89.06138626559463</v>
       </c>
       <c r="K34" t="n">
         <v>249.5306291968479</v>
@@ -37233,19 +37233,19 @@
         <v>363.2403418227265</v>
       </c>
       <c r="M34" t="n">
-        <v>391.1163490460121</v>
+        <v>391.1163490460122</v>
       </c>
       <c r="N34" t="n">
-        <v>388.3399158200684</v>
+        <v>388.3399158200685</v>
       </c>
       <c r="O34" t="n">
         <v>345.8360998751681</v>
       </c>
       <c r="P34" t="n">
-        <v>278.4400407976387</v>
+        <v>278.4400407976388</v>
       </c>
       <c r="Q34" t="n">
-        <v>121.877208190422</v>
+        <v>121.8772081904221</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>610.2984567882907</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>411.5040232878914</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37543,13 +37543,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>340.3440255141095</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>931.2911304007454</v>
+        <v>610.2984567882893</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
